--- a/DDF/Phase2.1/TY_12/InvoiceSplitOnlyPB/Testdata.xlsx
+++ b/DDF/Phase2.1/TY_12/InvoiceSplitOnlyPB/Testdata.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t xml:space="preserve">TC_ID </t>
   </si>
@@ -42,13 +42,19 @@
     <t>TC_58</t>
   </si>
   <si>
-    <t>Default ProdBuy</t>
-  </si>
-  <si>
     <t>ProdBuy Split-1</t>
   </si>
   <si>
     <t>ProdBuy Split-2</t>
+  </si>
+  <si>
+    <t>Default ProdBuy-1</t>
+  </si>
+  <si>
+    <t>Default ProdBuy-2</t>
+  </si>
+  <si>
+    <t>Default ProdBuy-3</t>
   </si>
 </sst>
 </file>
@@ -394,7 +400,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="str">
         <f>LOWER(TRUE)</f>
@@ -403,7 +409,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
         <v>5</v>
@@ -422,7 +428,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5" t="str">
         <f>LOWER(TRUE)</f>
@@ -431,12 +437,12 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
